--- a/ass1/demo/data.xlsx
+++ b/ass1/demo/data.xlsx
@@ -1,47 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tommy/Desktop/studyInMassey/159_735Studies in Parallel and Distributed Systems/ass1/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7C08A-982B-5F40-BC5B-5383F8018B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A514C9-DE2A-EF46-8F17-9DA534DD76B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40080" yWindow="460" windowWidth="30060" windowHeight="19360" xr2:uid="{3AC73309-C196-3C48-9587-CCBA209445EF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17540" xr2:uid="{3AC73309-C196-3C48-9587-CCBA209445EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$2:$G$7</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$D$2:$D$7</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$G$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$G$2:$G$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Master self work</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,17 +62,13 @@
     <t>Total proc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>1/f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.0000%"/>
+    <numFmt numFmtId="176" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -176,7 +156,7 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1503,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1A47E1-7596-0449-B65E-74DED9659E9B}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1542,15 +1522,9 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1">
-        <v>1.5746100000000001</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0.78637800000000002</v>
-      </c>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="L1"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3">
@@ -1574,18 +1548,8 @@
         <v>25.202100000000002</v>
       </c>
       <c r="G2" s="5">
-        <f>C2/D2</f>
-        <v>2.705624905762195E-6</v>
-      </c>
-      <c r="H2">
-        <f>1/G2</f>
-        <v>369600.38247367198</v>
-      </c>
-      <c r="J2">
-        <v>1.5745800000000001</v>
-      </c>
-      <c r="L2">
-        <v>0.78678599999999999</v>
+        <f>1 - C2/D2</f>
+        <v>0.99999729437509421</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1609,18 +1573,8 @@
         <v>12.60215</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G7" si="0">C3/D3</f>
-        <v>7.2365989348887341E-6</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H7" si="1">1/G3</f>
-        <v>138186.46148522192</v>
-      </c>
-      <c r="J3">
-        <v>1.5742499999999999</v>
-      </c>
-      <c r="L3">
-        <v>0.78712199999999999</v>
+        <f t="shared" ref="G3:G7" si="0">1 - C3/D3</f>
+        <v>0.99999276340106513</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1645,17 +1599,7 @@
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>9.5990644837955241E-4</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>1041.7681865645666</v>
-      </c>
-      <c r="J4">
-        <v>1.57422</v>
-      </c>
-      <c r="L4">
-        <v>0.78822700000000001</v>
+        <v>0.99904009355162049</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1680,17 +1624,7 @@
       </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>3.161450778511995E-3</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>316.31047580967606</v>
-      </c>
-      <c r="J5">
-        <v>1.5744800000000001</v>
-      </c>
-      <c r="L5">
-        <v>0.78872100000000001</v>
+        <v>0.99683854922148796</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1711,21 +1645,11 @@
       </c>
       <c r="F6" s="3">
         <f>J18</f>
-        <v>1.58074</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>2.6801179300374369E-3</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>373.11790977273586</v>
-      </c>
-      <c r="J6">
-        <v>1.5746800000000001</v>
-      </c>
-      <c r="L6">
-        <v>0.78915000000000002</v>
+        <v>0.99731988206996258</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1749,194 +1673,27 @@
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0.23317826897676949</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>4.2885643005593526</v>
-      </c>
-      <c r="J7">
-        <v>1.57623</v>
-      </c>
-      <c r="L7">
-        <v>0.78925800000000002</v>
+        <v>0.76682173102323048</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
         <v>40</v>
       </c>
-      <c r="J8">
-        <v>1.57643</v>
-      </c>
-      <c r="L8">
-        <v>0.78976299999999999</v>
-      </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="J9">
-        <v>1.57779</v>
-      </c>
-      <c r="L9">
-        <v>0.79040699999999997</v>
+      <c r="D9" s="3">
+        <v>25.202200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="J10">
-        <v>1.57863</v>
-      </c>
-      <c r="L10">
-        <v>0.79003199999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="J11">
-        <v>1.5783400000000001</v>
-      </c>
-      <c r="L11">
-        <v>0.79069699999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="J12">
-        <v>1.5789800000000001</v>
-      </c>
-      <c r="L12">
-        <v>0.79083599999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="J13">
-        <v>1.57972</v>
-      </c>
-      <c r="L13">
-        <v>0.79098999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="J14">
-        <v>1.57931</v>
-      </c>
-      <c r="L14">
-        <v>0.79150600000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="J15">
-        <v>1.58074</v>
-      </c>
-      <c r="L15">
-        <v>0.79177399999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="J16">
-        <v>1.5797399999999999</v>
-      </c>
-      <c r="L16">
-        <v>0.79233699999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12">
+    <row r="17" spans="8:8">
       <c r="H17" t="s">
         <v>4</v>
       </c>
-      <c r="J17">
-        <f>AVERAGE(J1:J16)</f>
-        <v>1.5770456250000002</v>
-      </c>
-      <c r="L17">
-        <v>0.79279699999999997</v>
-      </c>
     </row>
-    <row r="18" spans="8:12">
+    <row r="18" spans="8:8">
       <c r="H18" t="s">
         <v>5</v>
-      </c>
-      <c r="J18">
-        <f>MAX(J1:J16)</f>
-        <v>1.58074</v>
-      </c>
-      <c r="L18">
-        <v>0.79267799999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="8:12">
-      <c r="L19">
-        <v>0.79299699999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="8:12">
-      <c r="L20">
-        <v>0.794072</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12">
-      <c r="L21">
-        <v>0.79439499999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="8:12">
-      <c r="L22">
-        <v>0.79667100000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="8:12">
-      <c r="L23">
-        <v>0.79756099999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="8:12">
-      <c r="L24">
-        <v>0.79811699999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="8:12">
-      <c r="L25">
-        <v>0.79864400000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="8:12">
-      <c r="L26">
-        <v>0.79941700000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="8:12">
-      <c r="L27">
-        <v>0.799979</v>
-      </c>
-    </row>
-    <row r="28" spans="8:12">
-      <c r="L28">
-        <v>0.80053200000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="8:12">
-      <c r="L29">
-        <v>0.80127400000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="8:12">
-      <c r="L30">
-        <v>0.78958099999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="8:12">
-      <c r="K31" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <f>AVERAGE(L1:L30)</f>
-        <v>0.79275663333333324</v>
-      </c>
-    </row>
-    <row r="32" spans="8:12">
-      <c r="K32" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32">
-        <f>MAX(L1:L30)</f>
-        <v>0.80127400000000004</v>
       </c>
     </row>
   </sheetData>
